--- a/Week_05 Python_Project/Python_Project/Diagrams/Implementations Constraints Plan.xlsx
+++ b/Week_05 Python_Project/Python_Project/Diagrams/Implementations Constraints Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Implementations Constraints Plan</t>
   </si>
@@ -22,37 +22,61 @@
     <t>What is the constraint?</t>
   </si>
   <si>
-    <t>How is it a constraint?</t>
-  </si>
-  <si>
-    <t>Why is it a constraint?</t>
+    <t>Solution</t>
   </si>
   <si>
     <t>Hardware and software platforms</t>
   </si>
   <si>
+    <t>Different OS's, I use a PC but Apple computers are popular, which uses a different browser</t>
+  </si>
+  <si>
+    <t>Use code that works cross-platform</t>
+  </si>
+  <si>
     <t>Performance requirements</t>
   </si>
   <si>
+    <t>Everybody uses different hardware/software/website browsers</t>
+  </si>
+  <si>
+    <t>My website is fairly small and does not use a lot of resources to run</t>
+  </si>
+  <si>
     <t>Persistent storage and transactions</t>
   </si>
   <si>
+    <t>User needs to have hardware/software that is able to use SQL databases</t>
+  </si>
+  <si>
+    <t>Keep database requirements low. Website displays all information on actual page</t>
+  </si>
+  <si>
     <t>Usability</t>
   </si>
   <si>
+    <t>App needs to be straightforward and easy to understand</t>
+  </si>
+  <si>
+    <t>Keep the website I am developing simple to use and understand</t>
+  </si>
+  <si>
     <t>Budgets</t>
   </si>
   <si>
-    <t>How much money will be used for this project</t>
+    <t>Anything copyrighted would require payment to use</t>
+  </si>
+  <si>
+    <t>Everything used was free and open-source</t>
   </si>
   <si>
     <t>Time limitations</t>
   </si>
   <si>
-    <t>How long will it take to create this project</t>
-  </si>
-  <si>
-    <t>Depending on the scope of the project</t>
+    <t>Project time is 1 week</t>
+  </si>
+  <si>
+    <t>Planning out project, using diagrams and writing pseudocode</t>
   </si>
 </sst>
 </file>
@@ -89,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -122,11 +146,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -140,47 +181,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -191,17 +191,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -212,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -220,25 +209,16 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -259,18 +239,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D7" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:D7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C7" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn hiddenButton="1" colId="0"/>
     <filterColumn hiddenButton="1" colId="1"/>
     <filterColumn hiddenButton="1" colId="2"/>
-    <filterColumn hiddenButton="1" colId="3"/>
   </autoFilter>
-  <tableColumns count="4">
+  <tableColumns count="3">
     <tableColumn name="Implementations Constraints Plan" id="1"/>
     <tableColumn name="What is the constraint?" id="2"/>
-    <tableColumn name="How is it a constraint?" id="3"/>
-    <tableColumn name="Why is it a constraint?" id="4"/>
+    <tableColumn name="Solution" id="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -564,16 +542,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="44.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="85.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="77.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -586,63 +563,72 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
